--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75C69E2-00F0-447E-94D5-6EBB53816EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E7BAAE-AE6B-4191-B55E-F08F2BC0D608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,14 +520,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -2065,37 +2065,37 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="B40">
-        <f>SUM(K3:K38)</f>
-        <v>213839.85</v>
+      <c r="C40">
+        <f>ROUNDDOWN(SUM(K3:K38),0)</f>
+        <v>213839</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <f>MAX(K3:K38)</f>
         <v>7007</v>
       </c>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C320B9-705A-4C8E-983A-4EEB45048EDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21840" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_1_911" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -188,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,9 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,18 +513,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection sqref="A1:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,27 +543,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7">
+      <c r="A1" s="2">
         <v>91</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -601,14 +593,14 @@
       <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
@@ -643,14 +635,14 @@
         <f>E3+J3</f>
         <v>7007.0000000000009</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2">
@@ -674,33 +666,33 @@
         <v>44806</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
+        <f>IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I26" si="3">I3</f>
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J38" si="4">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K38" si="5">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6956.9500000000007</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -712,41 +704,41 @@
         <v>6906.9000000000005</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <f t="shared" ref="F5:F38" si="5">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H4:H38" si="7">IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I4:I26" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6906.9000000000005</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -758,41 +750,41 @@
         <v>6856.85</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
+        <f t="shared" si="6"/>
+        <v>44808</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="8"/>
-        <v>44808</v>
-      </c>
-      <c r="H6" s="6">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6856.85</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -804,41 +796,41 @@
         <v>6806.8</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
+        <f t="shared" si="6"/>
+        <v>44809</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="8"/>
-        <v>44809</v>
-      </c>
-      <c r="H7" s="6">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6806.8</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -850,41 +842,41 @@
         <v>6756.7500000000009</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
+        <f t="shared" si="6"/>
+        <v>44810</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="8"/>
-        <v>44810</v>
-      </c>
-      <c r="H8" s="6">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6756.7500000000009</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -896,41 +888,41 @@
         <v>6706.7000000000007</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
+        <f t="shared" si="6"/>
+        <v>44811</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="8"/>
-        <v>44811</v>
-      </c>
-      <c r="H9" s="6">
+        <v>10</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6706.7000000000007</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -942,11 +934,11 @@
         <v>6656.6500000000005</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="6">
@@ -954,29 +946,29 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6656.6500000000005</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -988,41 +980,41 @@
         <v>6606.6</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6606.6</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
@@ -1034,41 +1026,41 @@
         <v>6556.55</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
+        <f t="shared" si="6"/>
+        <v>44814</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="8"/>
-        <v>44814</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6566.55</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
@@ -1080,41 +1072,41 @@
         <v>6506.5000000000009</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
+        <f t="shared" si="6"/>
+        <v>44815</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="8"/>
-        <v>44815</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6526.5000000000009</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
@@ -1126,41 +1118,41 @@
         <v>6456.4500000000007</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
+        <f t="shared" si="6"/>
+        <v>44816</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="8"/>
-        <v>44816</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6486.4500000000007</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
@@ -1172,41 +1164,41 @@
         <v>6406.4000000000005</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
+        <f t="shared" si="6"/>
+        <v>44817</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="6">
         <f t="shared" si="8"/>
-        <v>44817</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6446.4000000000005</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
@@ -1218,41 +1210,41 @@
         <v>6356.35</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
+        <f t="shared" si="6"/>
+        <v>44818</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
         <f t="shared" si="8"/>
-        <v>44818</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6406.35</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
@@ -1264,41 +1256,41 @@
         <v>6306.3</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
+        <f t="shared" si="6"/>
+        <v>44819</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="8"/>
-        <v>44819</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6366.3</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
@@ -1310,41 +1302,41 @@
         <v>6256.2500000000009</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
+        <f t="shared" si="6"/>
+        <v>44820</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="8"/>
-        <v>44820</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6326.2500000000009</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
@@ -1356,41 +1348,41 @@
         <v>6206.2000000000007</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
+        <f t="shared" si="6"/>
+        <v>44821</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="8"/>
-        <v>44821</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6286.2000000000007</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
@@ -1402,41 +1394,41 @@
         <v>6156.1500000000005</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
+        <f t="shared" si="6"/>
+        <v>44822</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="6">
         <f t="shared" si="8"/>
-        <v>44822</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6246.1500000000005</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
@@ -1448,41 +1440,41 @@
         <v>6106.1</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
+        <f t="shared" si="6"/>
+        <v>44823</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="8"/>
-        <v>44823</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6206.1</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
@@ -1494,41 +1486,41 @@
         <v>6056.05</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
+        <f t="shared" si="6"/>
+        <v>44824</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="8"/>
-        <v>44824</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6166.05</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
@@ -1540,41 +1532,41 @@
         <v>6006.0000000000009</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
+        <f t="shared" si="6"/>
+        <v>44825</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="8"/>
-        <v>44825</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6126.0000000000009</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
@@ -1586,41 +1578,41 @@
         <v>5955.9500000000007</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
+        <f t="shared" si="6"/>
+        <v>44826</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="I24" s="6">
         <f t="shared" si="8"/>
-        <v>44826</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6085.9500000000007</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
@@ -1632,41 +1624,41 @@
         <v>5905.9000000000005</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
+        <f t="shared" si="6"/>
+        <v>44827</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="6">
         <f t="shared" si="8"/>
-        <v>44827</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6045.9000000000005</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
@@ -1678,41 +1670,41 @@
         <v>5855.85</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
+        <f t="shared" si="6"/>
+        <v>44828</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="6">
         <f t="shared" si="8"/>
-        <v>44828</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6005.85</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
@@ -1724,15 +1716,15 @@
         <v>5805.8</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="I27" s="6">
@@ -1740,25 +1732,25 @@
         <v>10</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5965.8</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
@@ -1770,15 +1762,15 @@
         <v>5755.7500000000009</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="I28" s="6">
@@ -1786,25 +1778,25 @@
         <v>10</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5925.7500000000009</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
@@ -1816,15 +1808,15 @@
         <v>5705.7000000000007</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44831</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="I29" s="6">
@@ -1832,25 +1824,25 @@
         <v>10</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5885.7000000000007</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -1862,15 +1854,15 @@
         <v>5655.6500000000005</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I30" s="6">
@@ -1878,25 +1870,25 @@
         <v>10</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5845.6500000000005</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
@@ -1908,15 +1900,15 @@
         <v>5605.6</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="I31" s="6">
@@ -1924,25 +1916,25 @@
         <v>10</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5805.6</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
@@ -1954,15 +1946,15 @@
         <v>5555.55</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="I32" s="6">
@@ -1970,25 +1962,25 @@
         <v>10</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5765.55</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
@@ -2000,15 +1992,15 @@
         <v>5505.5000000000009</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="I33" s="6">
@@ -2016,14 +2008,14 @@
         <v>10</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5725.5000000000009</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2040,11 +2032,11 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
@@ -2056,15 +2048,15 @@
         <v>5455.4500000000007</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I34" s="6">
@@ -2072,14 +2064,14 @@
         <v>10</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5685.4500000000007</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2096,11 +2088,11 @@
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2112,15 +2104,15 @@
         <v>2702.7000000000003</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="I35" s="6">
@@ -2128,14 +2120,14 @@
         <v>10</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2942.7000000000003</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2152,11 +2144,11 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2168,15 +2160,15 @@
         <v>2677.6750000000002</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I36" s="6">
@@ -2184,14 +2176,14 @@
         <v>10</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2927.6750000000002</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2208,11 +2200,11 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2224,15 +2216,15 @@
         <v>2652.65</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="I37" s="6">
@@ -2240,14 +2232,14 @@
         <v>10</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2912.65</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2264,11 +2256,11 @@
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2280,15 +2272,15 @@
         <v>2627.625</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="I38" s="6">
@@ -2296,14 +2288,14 @@
         <v>10</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2897.625</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2317,18 +2309,18 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -2342,23 +2334,23 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="6">
         <f>INT(SUM(K3:K38))</f>
         <v>213839</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2372,23 +2364,23 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -2402,23 +2394,23 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2432,23 +2424,23 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
         <v>7007.0000000000009</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2462,18 +2454,18 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C320B9-705A-4C8E-983A-4EEB45048EDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213387AF-5C06-4B67-B708-A3F5CA1725E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Федько</t>
   </si>
   <si>
-    <t>Общая сумма "Итого",руб</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Просрочка</t>
+  </si>
+  <si>
+    <t>Общая сумма ,руб</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection sqref="A1:L44"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -579,13 +579,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>4</v>
@@ -621,7 +621,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="6">
-        <f>IF(G3&gt;F3,G3-F3,0)</f>
+        <f>IF(G7&lt;=F7,0,G7-F7)</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
@@ -712,11 +712,11 @@
         <v>44807</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H4:H38" si="7">IF(G5&gt;F5,G5-F5,0)</f>
+        <f>IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I4:I26" si="8">I4</f>
+        <f t="shared" ref="I4:I26" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="6">
@@ -758,11 +758,11 @@
         <v>44808</v>
       </c>
       <c r="H6" s="6">
+        <f t="shared" ref="H5:H38" si="8">IF(G6&gt;F6,G6-F6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="6">
@@ -804,11 +804,11 @@
         <v>44809</v>
       </c>
       <c r="H7" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="6">
@@ -850,11 +850,11 @@
         <v>44810</v>
       </c>
       <c r="H8" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="6">
@@ -896,11 +896,11 @@
         <v>44811</v>
       </c>
       <c r="H9" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -988,11 +988,11 @@
         <v>44813</v>
       </c>
       <c r="H11" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="6">
@@ -1034,11 +1034,11 @@
         <v>44814</v>
       </c>
       <c r="H12" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -1080,11 +1080,11 @@
         <v>44815</v>
       </c>
       <c r="H13" s="6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="6">
@@ -1126,11 +1126,11 @@
         <v>44816</v>
       </c>
       <c r="H14" s="6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="6">
@@ -1172,11 +1172,11 @@
         <v>44817</v>
       </c>
       <c r="H15" s="6">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="6">
         <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="6">
@@ -1218,11 +1218,11 @@
         <v>44818</v>
       </c>
       <c r="H16" s="6">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="6">
@@ -1264,11 +1264,11 @@
         <v>44819</v>
       </c>
       <c r="H17" s="6">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="6">
@@ -1310,11 +1310,11 @@
         <v>44820</v>
       </c>
       <c r="H18" s="6">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="6">
@@ -1356,11 +1356,11 @@
         <v>44821</v>
       </c>
       <c r="H19" s="6">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="6">
@@ -1402,11 +1402,11 @@
         <v>44822</v>
       </c>
       <c r="H20" s="6">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="6">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="6">
@@ -1448,11 +1448,11 @@
         <v>44823</v>
       </c>
       <c r="H21" s="6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="6">
@@ -1494,11 +1494,11 @@
         <v>44824</v>
       </c>
       <c r="H22" s="6">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="6">
@@ -1540,11 +1540,11 @@
         <v>44825</v>
       </c>
       <c r="H23" s="6">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="6">
@@ -1563,7 +1563,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="4"/>
@@ -1586,11 +1586,11 @@
         <v>44826</v>
       </c>
       <c r="H24" s="6">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I24" s="6">
         <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="6">
@@ -1632,11 +1632,11 @@
         <v>44827</v>
       </c>
       <c r="H25" s="6">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="6">
         <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="6">
@@ -1655,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="4"/>
@@ -1678,11 +1678,11 @@
         <v>44828</v>
       </c>
       <c r="H26" s="6">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="6">
         <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="6">
@@ -1724,7 +1724,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I27" s="6">
@@ -1747,7 +1747,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="4"/>
@@ -1770,7 +1770,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="I28" s="6">
@@ -1793,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="4"/>
@@ -1816,7 +1816,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="I29" s="6">
@@ -1839,7 +1839,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="4"/>
@@ -1862,7 +1862,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="I30" s="6">
@@ -1885,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="4"/>
@@ -1908,7 +1908,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="I31" s="6">
@@ -1931,7 +1931,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="4"/>
@@ -1954,7 +1954,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="I32" s="6">
@@ -1977,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="4"/>
@@ -2000,7 +2000,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="I33" s="6">
@@ -2033,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="4"/>
@@ -2056,7 +2056,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="I34" s="6">
@@ -2089,7 +2089,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="4"/>
@@ -2112,7 +2112,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I35" s="6">
@@ -2145,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="4"/>
@@ -2168,7 +2168,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="I36" s="6">
@@ -2201,7 +2201,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="4"/>
@@ -2224,7 +2224,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I37" s="6">
@@ -2257,7 +2257,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="4"/>
@@ -2280,7 +2280,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="I38" s="6">
@@ -2335,11 +2335,11 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>39</v>
+      <c r="B40" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="6">
-        <f>INT(SUM(K3:K38))</f>
+        <f>TRUNC(SUM(K3:K38))</f>
         <v>213839</v>
       </c>
       <c r="D40" s="2"/>
@@ -2365,8 +2365,8 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
+      <c r="B41" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2395,8 +2395,8 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
+      <c r="B42" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2425,8 +2425,8 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
+      <c r="B43" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213387AF-5C06-4B67-B708-A3F5CA1725E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960E50E-00A0-4DA1-ADBD-457F1A3D0150}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +640,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -686,13 +687,14 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -704,11 +706,11 @@
         <v>6906.9000000000005</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:F38" si="5">$F$3</f>
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" ref="G5:G38" si="6">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="6">
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I4:I26" si="7">I4</f>
+        <f t="shared" ref="I5:I26" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="6">
@@ -732,13 +734,14 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -750,19 +753,19 @@
         <v>6856.85</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" ref="H5:H38" si="8">IF(G6&gt;F6,G6-F6,0)</f>
+        <f t="shared" ref="H6:H38" si="9">IF(G6&gt;F6,G6-F6,0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="6">
@@ -778,13 +781,14 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -796,19 +800,19 @@
         <v>6806.8</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="6">
@@ -824,13 +828,14 @@
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -842,19 +847,19 @@
         <v>6756.7500000000009</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="6">
@@ -870,13 +875,14 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -888,19 +894,19 @@
         <v>6706.7000000000007</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="6">
@@ -916,13 +922,14 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -934,11 +941,11 @@
         <v>6656.6500000000005</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="6">
@@ -946,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="6">
@@ -962,13 +969,14 @@
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -980,19 +988,19 @@
         <v>6606.6</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="6">
@@ -1008,13 +1016,14 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
@@ -1026,19 +1035,19 @@
         <v>6556.55</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="6">
@@ -1054,13 +1063,14 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
@@ -1072,19 +1082,19 @@
         <v>6506.5000000000009</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="6">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="6">
@@ -1100,13 +1110,14 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
@@ -1118,19 +1129,19 @@
         <v>6456.4500000000007</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="6">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="6">
@@ -1146,13 +1157,14 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
@@ -1164,19 +1176,19 @@
         <v>6406.4000000000005</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="6">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="6">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="6">
@@ -1192,13 +1204,14 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
@@ -1210,19 +1223,19 @@
         <v>6356.35</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="6">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="6">
@@ -1238,13 +1251,14 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
@@ -1256,19 +1270,19 @@
         <v>6306.3</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="6">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="6">
@@ -1284,13 +1298,14 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
@@ -1302,19 +1317,19 @@
         <v>6256.2500000000009</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="6">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="6">
@@ -1330,13 +1345,14 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
@@ -1348,19 +1364,19 @@
         <v>6206.2000000000007</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="6">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="6">
@@ -1376,13 +1392,14 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
@@ -1394,19 +1411,19 @@
         <v>6156.1500000000005</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="6">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I20" s="6">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="6">
@@ -1422,13 +1439,14 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
@@ -1440,19 +1458,19 @@
         <v>6106.1</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="6">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="6">
@@ -1468,13 +1486,14 @@
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
@@ -1486,19 +1505,19 @@
         <v>6056.05</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="6">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="6">
         <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="6">
@@ -1514,13 +1533,14 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
@@ -1532,19 +1552,19 @@
         <v>6006.0000000000009</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="6">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="6">
@@ -1560,13 +1580,14 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
@@ -1578,19 +1599,19 @@
         <v>5955.9500000000007</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="6">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="I24" s="6">
         <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="6">
@@ -1606,13 +1627,14 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
@@ -1624,19 +1646,19 @@
         <v>5905.9000000000005</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="6">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="I25" s="6">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="6">
@@ -1652,13 +1674,14 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
@@ -1670,19 +1693,19 @@
         <v>5855.85</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="6">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="I26" s="6">
         <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="6">
@@ -1698,13 +1721,14 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
@@ -1716,19 +1740,19 @@
         <v>5805.8</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:I38" si="9">I26</f>
+        <f t="shared" ref="I27:I38" si="10">I26</f>
         <v>10</v>
       </c>
       <c r="J27" s="6">
@@ -1744,13 +1768,14 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
@@ -1762,19 +1787,19 @@
         <v>5755.7500000000009</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J28" s="6">
@@ -1790,13 +1815,14 @@
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
@@ -1808,19 +1834,19 @@
         <v>5705.7000000000007</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J29" s="6">
@@ -1836,13 +1862,14 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -1854,19 +1881,19 @@
         <v>5655.6500000000005</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J30" s="6">
@@ -1882,13 +1909,14 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
@@ -1900,19 +1928,19 @@
         <v>5605.6</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J31" s="6">
@@ -1928,13 +1956,14 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
@@ -1946,19 +1975,19 @@
         <v>5555.55</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J32" s="6">
@@ -1974,13 +2003,14 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
@@ -1992,19 +2022,19 @@
         <v>5505.5000000000009</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J33" s="6">
@@ -2030,13 +2060,14 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
@@ -2048,19 +2079,19 @@
         <v>5455.4500000000007</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J34" s="6">
@@ -2086,13 +2117,14 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2104,19 +2136,19 @@
         <v>2702.7000000000003</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J35" s="6">
@@ -2142,13 +2174,14 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2160,19 +2193,19 @@
         <v>2677.6750000000002</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J36" s="6">
@@ -2198,13 +2231,14 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2216,19 +2250,19 @@
         <v>2652.65</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J37" s="6">
@@ -2254,13 +2288,14 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2272,19 +2307,19 @@
         <v>2627.625</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J38" s="6">

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960E50E-00A0-4DA1-ADBD-457F1A3D0150}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD228FC-DAC9-410F-9F23-1D3B0AC22765}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,13 +171,13 @@
     <t>Тариф, руб./кв.м</t>
   </si>
   <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
     <t>Общая сумма ,руб</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>49</v>
@@ -2371,10 +2371,10 @@
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="6">
-        <f>TRUNC(SUM(K3:K38))</f>
+        <f>INT(SUM(K3:K38))</f>
         <v>213839</v>
       </c>
       <c r="D40" s="2"/>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD228FC-DAC9-410F-9F23-1D3B0AC22765}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F69C27-5AF7-4483-90F9-E23D616529AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,8 +2374,8 @@
         <v>48</v>
       </c>
       <c r="C40" s="6">
-        <f>INT(SUM(K3:K38))</f>
-        <v>213839</v>
+        <f>SUM(K3:K38)</f>
+        <v>213839.85</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F69C27-5AF7-4483-90F9-E23D616529AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F00FE-F6B8-4B49-A1F4-1A8D24835758}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,13 +524,13 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -560,37 +560,37 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="2"/>
@@ -610,28 +610,28 @@
         <f>IF(A3&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>100.10000000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>7007.0000000000009</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>IF(G7&lt;=F7,0,G7-F7)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f>E3+J3</f>
         <v>7007.0000000000009</v>
       </c>
@@ -654,31 +654,31 @@
         <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,$A$1*1.1,$A$1*1.1/2)</f>
         <v>100.10000000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>6956.9500000000007</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f>IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6956.9500000000007</v>
       </c>
@@ -701,31 +701,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>6906.9000000000005</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F38" si="6">$F$3</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" ref="I5:I26" si="8">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="3"/>
         <v>6906.9000000000005</v>
       </c>
@@ -748,31 +748,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>C6*D6</f>
         <v>6856.85</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" ref="H6:H38" si="9">IF(G6&gt;F6,G6-F6,0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="3"/>
         <v>6856.85</v>
       </c>
@@ -795,31 +795,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>6806.8</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="3"/>
         <v>6806.8</v>
       </c>
@@ -842,31 +842,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>6756.7500000000009</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="3"/>
         <v>6756.7500000000009</v>
       </c>
@@ -889,31 +889,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>6706.7000000000007</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="3"/>
         <v>6706.7000000000007</v>
       </c>
@@ -936,31 +936,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>6656.6500000000005</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="7"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f>IF(G10&gt;F10,G10-F10,0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="3"/>
         <v>6656.6500000000005</v>
       </c>
@@ -983,31 +983,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>6606.6</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="3"/>
         <v>6606.6</v>
       </c>
@@ -1030,31 +1030,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>6556.55</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J12" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="3"/>
         <v>6566.55</v>
       </c>
@@ -1077,31 +1077,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>6506.5000000000009</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="3"/>
         <v>6526.5000000000009</v>
       </c>
@@ -1124,31 +1124,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>6456.4500000000007</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="3"/>
         <v>6486.4500000000007</v>
       </c>
@@ -1171,31 +1171,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>6406.4000000000005</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="3"/>
         <v>6446.4000000000005</v>
       </c>
@@ -1218,31 +1218,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>6356.35</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="3"/>
         <v>6406.35</v>
       </c>
@@ -1265,31 +1265,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>6306.3</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="3"/>
         <v>6366.3</v>
       </c>
@@ -1312,31 +1312,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>6256.2500000000009</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="3"/>
         <v>6326.2500000000009</v>
       </c>
@@ -1359,31 +1359,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>6206.2000000000007</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="3"/>
         <v>6286.2000000000007</v>
       </c>
@@ -1406,31 +1406,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>6156.1500000000005</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="3"/>
         <v>6246.1500000000005</v>
       </c>
@@ -1453,31 +1453,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>6106.1</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="H21" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="3"/>
         <v>6206.1</v>
       </c>
@@ -1500,31 +1500,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>6056.05</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="3"/>
         <v>6166.05</v>
       </c>
@@ -1547,31 +1547,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>6006.0000000000009</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="3"/>
         <v>6126.0000000000009</v>
       </c>
@@ -1594,31 +1594,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>5955.9500000000007</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="3"/>
         <v>6085.9500000000007</v>
       </c>
@@ -1641,31 +1641,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>5905.9000000000005</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="3"/>
         <v>6045.9000000000005</v>
       </c>
@@ -1688,31 +1688,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>5855.85</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="3"/>
         <v>6005.85</v>
       </c>
@@ -1735,31 +1735,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>5805.8</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <f t="shared" ref="I27:I38" si="10">I26</f>
         <v>10</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="3"/>
         <v>5965.8</v>
       </c>
@@ -1782,31 +1782,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>5755.7500000000009</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="3"/>
         <v>5925.7500000000009</v>
       </c>
@@ -1829,31 +1829,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>5705.7000000000007</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="3"/>
         <v>5885.7000000000007</v>
       </c>
@@ -1876,31 +1876,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>5655.6500000000005</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="3"/>
         <v>5845.6500000000005</v>
       </c>
@@ -1923,31 +1923,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>5605.6</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="3"/>
         <v>5805.6</v>
       </c>
@@ -1970,31 +1970,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>5555.55</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="3"/>
         <v>5765.55</v>
       </c>
@@ -2017,31 +2017,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <f>C33*D33</f>
         <v>5505.5000000000009</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="3"/>
         <v>5725.5000000000009</v>
       </c>
@@ -2074,31 +2074,31 @@
         <f t="shared" si="0"/>
         <v>100.10000000000001</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>5455.4500000000007</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="3"/>
         <v>5685.4500000000007</v>
       </c>
@@ -2131,31 +2131,31 @@
         <f t="shared" si="0"/>
         <v>50.050000000000004</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f>C35*D35</f>
         <v>2702.7000000000003</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="3"/>
         <v>2942.7000000000003</v>
       </c>
@@ -2188,31 +2188,31 @@
         <f t="shared" si="0"/>
         <v>50.050000000000004</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>2677.6750000000002</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <f t="shared" si="3"/>
         <v>2927.6750000000002</v>
       </c>
@@ -2245,31 +2245,31 @@
         <f t="shared" si="0"/>
         <v>50.050000000000004</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>2652.65</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <f t="shared" si="3"/>
         <v>2912.65</v>
       </c>
@@ -2302,31 +2302,31 @@
         <f t="shared" si="0"/>
         <v>50.050000000000004</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f>C38*D38</f>
         <v>2627.625</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="4">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f t="shared" si="3"/>
         <v>2897.625</v>
       </c>
@@ -2370,12 +2370,12 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="6">
-        <f>SUM(K3:K38)</f>
-        <v>213839.85</v>
+      <c r="C40" s="5">
+        <f>TRUNC(SUM(K3:K38))</f>
+        <v>213839</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="2">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="2">
@@ -2460,7 +2460,7 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="2">
@@ -2514,18 +2514,18 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -2539,18 +2539,18 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -2564,18 +2564,18 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5F00FE-F6B8-4B49-A1F4-1A8D24835758}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5265EC-B70C-4EBD-A024-ECA728574C43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,12 +615,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(A3&lt;=32,100.1,100.1/2)</f>
-        <v>100.1</v>
+        <f>A1*1.1</f>
+        <v>100.10000000000001</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
-        <v>7007</v>
+        <v>7007.0000000000009</v>
       </c>
       <c r="F3" s="2">
         <v>44813</v>
@@ -641,7 +641,7 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K38" si="1">E3+J3</f>
-        <v>7007</v>
+        <v>7007.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -657,27 +657,27 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="3">IF(A4&lt;=32,100.1,100.1/2)</f>
-        <v>100.1</v>
+        <f>D3</f>
+        <v>100.10000000000001</v>
       </c>
       <c r="E4" s="1">
         <f>C4*D4</f>
-        <v>6956.95</v>
+        <v>6956.9500000000007</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F38" si="4">F3</f>
+        <f t="shared" ref="F4:F38" si="3">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G38" si="5">G3+1</f>
+        <f t="shared" ref="G4:G38" si="4">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="6">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="5">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I38" si="7">I3</f>
+        <f t="shared" ref="I4:I38" si="6">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -686,7 +686,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>6956.95</v>
+        <v>6956.9500000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -698,31 +698,31 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="8">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="7">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" ref="D5:D34" si="8">D4</f>
+        <v>100.10000000000001</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E38" si="9">C5*D5</f>
-        <v>6906.9</v>
+        <v>6906.9000000000005</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -731,7 +731,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>6906.9</v>
+        <v>6906.9000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -743,31 +743,31 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="9"/>
-        <v>6856.8499999999995</v>
+        <v>6856.85</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -776,7 +776,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>6856.8499999999995</v>
+        <v>6856.85</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -788,31 +788,31 @@
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="9"/>
-        <v>6806.7999999999993</v>
+        <v>6806.8</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -821,7 +821,7 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>6806.7999999999993</v>
+        <v>6806.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -833,31 +833,31 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="9"/>
-        <v>6756.75</v>
+        <v>6756.7500000000009</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -866,7 +866,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>6756.75</v>
+        <v>6756.7500000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -878,31 +878,31 @@
         <v>21</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="9"/>
-        <v>6706.7</v>
+        <v>6706.7000000000007</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -911,7 +911,7 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>6706.7</v>
+        <v>6706.7000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -923,31 +923,31 @@
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="9"/>
-        <v>6656.65</v>
+        <v>6656.6500000000005</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -956,7 +956,7 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>6656.65</v>
+        <v>6656.6500000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -968,31 +968,31 @@
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="9"/>
-        <v>6606.5999999999995</v>
+        <v>6606.6</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>6606.5999999999995</v>
+        <v>6606.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1013,31 +1013,31 @@
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="9"/>
-        <v>6556.5499999999993</v>
+        <v>6556.55</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>6566.5499999999993</v>
+        <v>6566.55</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1058,31 +1058,31 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="9"/>
-        <v>6506.5</v>
+        <v>6506.5000000000009</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>6526.5</v>
+        <v>6526.5000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1103,31 +1103,31 @@
         <v>26</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="9"/>
-        <v>6456.45</v>
+        <v>6456.4500000000007</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>6486.45</v>
+        <v>6486.4500000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1148,31 +1148,31 @@
         <v>27</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="9"/>
-        <v>6406.4</v>
+        <v>6406.4000000000005</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>6446.4</v>
+        <v>6446.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1193,31 +1193,31 @@
         <v>28</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="9"/>
-        <v>6356.3499999999995</v>
+        <v>6356.35</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>6406.3499999999995</v>
+        <v>6406.35</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1238,31 +1238,31 @@
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="9"/>
-        <v>6306.2999999999993</v>
+        <v>6306.3</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>6366.2999999999993</v>
+        <v>6366.3</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1283,31 +1283,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="9"/>
-        <v>6256.25</v>
+        <v>6256.2500000000009</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>6326.25</v>
+        <v>6326.2500000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1328,31 +1328,31 @@
         <v>31</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="9"/>
-        <v>6206.2</v>
+        <v>6206.2000000000007</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>6286.2</v>
+        <v>6286.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1373,31 +1373,31 @@
         <v>32</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="9"/>
-        <v>6156.15</v>
+        <v>6156.1500000000005</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="1"/>
-        <v>6246.15</v>
+        <v>6246.1500000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1418,31 +1418,31 @@
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="9"/>
-        <v>6106.0999999999995</v>
+        <v>6106.1</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>6206.0999999999995</v>
+        <v>6206.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1463,31 +1463,31 @@
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="9"/>
-        <v>6056.0499999999993</v>
+        <v>6056.05</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>6166.0499999999993</v>
+        <v>6166.05</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1508,31 +1508,31 @@
         <v>35</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="9"/>
-        <v>6006</v>
+        <v>6006.0000000000009</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>6126</v>
+        <v>6126.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1553,31 +1553,31 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="9"/>
-        <v>5955.95</v>
+        <v>5955.9500000000007</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="1"/>
-        <v>6085.95</v>
+        <v>6085.9500000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1598,31 +1598,31 @@
         <v>37</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="9"/>
-        <v>5905.9</v>
+        <v>5905.9000000000005</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="1"/>
-        <v>6045.9</v>
+        <v>6045.9000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1643,31 +1643,31 @@
         <v>38</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="9"/>
-        <v>5855.8499999999995</v>
+        <v>5855.85</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>6005.8499999999995</v>
+        <v>6005.85</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1688,31 +1688,31 @@
         <v>39</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="9"/>
-        <v>5805.7999999999993</v>
+        <v>5805.8</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>5965.7999999999993</v>
+        <v>5965.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1733,31 +1733,31 @@
         <v>40</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="9"/>
-        <v>5755.75</v>
+        <v>5755.7500000000009</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="1"/>
-        <v>5925.75</v>
+        <v>5925.7500000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1778,31 +1778,31 @@
         <v>41</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="9"/>
-        <v>5705.7</v>
+        <v>5705.7000000000007</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>5885.7</v>
+        <v>5885.7000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1823,31 +1823,31 @@
         <v>42</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="9"/>
-        <v>5655.65</v>
+        <v>5655.6500000000005</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="1"/>
-        <v>5845.65</v>
+        <v>5845.6500000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1868,31 +1868,31 @@
         <v>43</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="9"/>
-        <v>5605.5999999999995</v>
+        <v>5605.6</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>5805.5999999999995</v>
+        <v>5805.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1913,31 +1913,31 @@
         <v>44</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="9"/>
-        <v>5555.5499999999993</v>
+        <v>5555.55</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>5765.5499999999993</v>
+        <v>5765.55</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1958,31 +1958,31 @@
         <v>45</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="9"/>
-        <v>5505.5</v>
+        <v>5505.5000000000009</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="1"/>
-        <v>5725.5</v>
+        <v>5725.5000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2003,31 +2003,31 @@
         <v>46</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
-        <v>100.1</v>
+        <f t="shared" si="8"/>
+        <v>100.10000000000001</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="9"/>
-        <v>5455.45</v>
+        <v>5455.4500000000007</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="1"/>
-        <v>5685.45</v>
+        <v>5685.4500000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2048,31 +2048,31 @@
         <v>47</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
-        <v>50.05</v>
+        <f>D3/2</f>
+        <v>50.050000000000004</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="9"/>
-        <v>2702.7</v>
+        <v>2702.7000000000003</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="1"/>
-        <v>2942.7</v>
+        <v>2942.7000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2093,31 +2093,31 @@
         <v>48</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="3"/>
-        <v>50.05</v>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <v>50.050000000000004</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="9"/>
-        <v>2677.6749999999997</v>
+        <v>2677.6750000000002</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="1"/>
-        <v>2927.6749999999997</v>
+        <v>2927.6750000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2138,31 +2138,31 @@
         <v>49</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="3"/>
-        <v>50.05</v>
+        <f t="shared" si="10"/>
+        <v>50.050000000000004</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="9"/>
-        <v>2652.6499999999996</v>
+        <v>2652.65</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="1"/>
-        <v>2912.6499999999996</v>
+        <v>2912.65</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2183,31 +2183,31 @@
         <v>50</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="3"/>
-        <v>50.05</v>
+        <f t="shared" si="10"/>
+        <v>50.050000000000004</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="9"/>
         <v>2627.625</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
-        <v>7007</v>
+        <v>7007.0000000000009</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2306,6 +2306,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E18:E34 E4:E17" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2052,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/2</f>
+        <f>A1*1.1/2</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E35" s="1">
@@ -2097,7 +2097,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D35</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E36" s="1">
@@ -2142,7 +2142,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D37:D38" si="10">D36</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E37" s="1">
@@ -2307,7 +2307,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E18:E34 E4:E17" formula="1"/>
+    <ignoredError sqref="E18:E34 E4:E17 D35 E36:E38" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +185,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -218,15 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -535,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +622,7 @@
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
@@ -676,7 +666,7 @@
         <f t="shared" ref="H4:H38" si="5">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <f t="shared" ref="I4:I38" si="6">I3</f>
         <v>10</v>
       </c>
@@ -721,7 +711,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -766,7 +756,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -811,7 +801,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -856,7 +846,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -901,7 +891,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -946,7 +936,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -991,7 +981,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1036,7 +1026,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1081,7 +1071,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1126,7 +1116,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1171,7 +1161,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1216,7 +1206,7 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1261,7 +1251,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1306,7 +1296,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1351,7 +1341,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1396,7 +1386,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1441,7 +1431,7 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1486,7 +1476,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1531,7 +1521,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1576,7 +1566,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1621,7 +1611,7 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1666,7 +1656,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1711,7 +1701,7 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1756,7 +1746,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1801,7 +1791,7 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1846,7 +1836,7 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1891,7 +1881,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1936,7 +1926,7 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -1981,7 +1971,7 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2026,7 +2016,7 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2071,7 +2061,7 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2116,7 +2106,7 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2161,7 +2151,7 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2206,7 +2196,7 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -2237,7 +2227,7 @@
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>213839</v>
       </c>
@@ -2306,8 +2296,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E18:E34 E4:E17 D35 E36:E38" formula="1"/>
+    <ignoredError sqref="E18:E34 E4:E17 E36:E38" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2042,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>A1*1.1/2</f>
+        <f>D3/2</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E35" s="1">
@@ -2087,7 +2087,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D35</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E36" s="1">
@@ -2132,7 +2132,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:D38" si="10">D36</f>
+        <f t="shared" si="10"/>
         <v>50.050000000000004</v>
       </c>
       <c r="E37" s="1">

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2087,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E36" s="1">
@@ -2132,7 +2132,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E37" s="1">
@@ -2177,7 +2177,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>50.050000000000004</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_91.xlsx
+++ b/LR3/table_1_91.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Шамиль\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -572,7 +572,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -679,11 +679,11 @@
         <v>88</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D24" si="0">$A$1*1.1</f>
         <v>100.10000000000001</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E24" si="1">C4*D4</f>
         <v>8808.8000000000011</v>
       </c>
       <c r="F4" s="7">
@@ -700,11 +700,11 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J24" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K24" si="3">J4+E4</f>
         <v>8808.8000000000011</v>
       </c>
     </row>
@@ -734,7 +734,7 @@
         <v>44811</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H4:H38" si="4">IF(G5&lt;F5,0,G5-F5)</f>
+        <f t="shared" ref="H5:H24" si="4">IF(G5&lt;F5,0,G5-F5)</f>
         <v>0</v>
       </c>
       <c r="I5">
@@ -880,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C5:C38" si="5">C8-0.5</f>
+        <f t="shared" ref="C9:C24" si="5">C8-0.5</f>
         <v>84.699999999999989</v>
       </c>
       <c r="D9">
@@ -1264,22 +1264,22 @@
         <v>44813</v>
       </c>
       <c r="G18" s="7">
-        <v>44824</v>
+        <v>44827</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>8138.0199999999995</v>
+        <v>8168.0199999999995</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -1535,37 +1535,37 @@
         <v>18</v>
       </c>
       <c r="C25">
-        <f>C24-0.5</f>
+        <f t="shared" ref="C25:C38" si="6">C24-0.5</f>
         <v>96.5</v>
       </c>
       <c r="D25">
-        <f>$A$1*1.1</f>
+        <f t="shared" ref="D25:D34" si="7">$A$1*1.1</f>
         <v>100.10000000000001</v>
       </c>
       <c r="E25">
-        <f>C25*D25</f>
+        <f t="shared" ref="E25:E38" si="8">C25*D25</f>
         <v>9659.6500000000015</v>
       </c>
       <c r="F25" s="7">
         <v>44813</v>
       </c>
       <c r="G25" s="7">
-        <v>44827</v>
+        <v>44834</v>
       </c>
       <c r="H25">
-        <f>IF(G25&lt;F25,0,G25-F25)</f>
-        <v>14</v>
+        <f t="shared" ref="H25:H38" si="9">IF(G25&lt;F25,0,G25-F25)</f>
+        <v>21</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
-        <f>I25*H25</f>
-        <v>140</v>
+        <f t="shared" ref="J25:J38" si="10">I25*H25</f>
+        <v>210</v>
       </c>
       <c r="K25">
-        <f>J25+E25</f>
-        <v>9799.6500000000015</v>
+        <f t="shared" ref="K25:K38" si="11">J25+E25</f>
+        <v>9869.6500000000015</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -1576,15 +1576,15 @@
         <v>19</v>
       </c>
       <c r="C26">
-        <f>C25-0.5</f>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="D26">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E26">
-        <f>C26*D26</f>
+        <f t="shared" si="8"/>
         <v>9609.6</v>
       </c>
       <c r="F26" s="7">
@@ -1594,18 +1594,18 @@
         <v>44828</v>
       </c>
       <c r="H26">
-        <f>IF(G26&lt;F26,0,G26-F26)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <f>I26*H26</f>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f>J26+E26</f>
+        <f t="shared" si="11"/>
         <v>9759.6</v>
       </c>
     </row>
@@ -1617,15 +1617,15 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <f>C26-0.5</f>
+        <f t="shared" si="6"/>
         <v>95.5</v>
       </c>
       <c r="D27">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E27">
-        <f>C27*D27</f>
+        <f t="shared" si="8"/>
         <v>9559.5500000000011</v>
       </c>
       <c r="F27" s="7">
@@ -1635,18 +1635,18 @@
         <v>44829</v>
       </c>
       <c r="H27">
-        <f>IF(G27&lt;F27,0,G27-F27)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <f>I27*H27</f>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f>J27+E27</f>
+        <f t="shared" si="11"/>
         <v>9719.5500000000011</v>
       </c>
     </row>
@@ -1658,15 +1658,15 @@
         <v>21</v>
       </c>
       <c r="C28">
-        <f>C27-0.5</f>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="D28">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E28">
-        <f>C28*D28</f>
+        <f t="shared" si="8"/>
         <v>9509.5</v>
       </c>
       <c r="F28" s="7">
@@ -1676,18 +1676,18 @@
         <v>44830</v>
       </c>
       <c r="H28">
-        <f>IF(G28&lt;F28,0,G28-F28)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I28">
         <v>10</v>
       </c>
       <c r="J28">
-        <f>I28*H28</f>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
       <c r="K28">
-        <f>J28+E28</f>
+        <f t="shared" si="11"/>
         <v>9679.5</v>
       </c>
     </row>
@@ -1699,37 +1699,37 @@
         <v>22</v>
       </c>
       <c r="C29">
-        <f>C28-0.5</f>
+        <f t="shared" si="6"/>
         <v>94.5</v>
       </c>
       <c r="D29">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E29">
-        <f>C29*D29</f>
+        <f t="shared" si="8"/>
         <v>9459.4500000000007</v>
       </c>
       <c r="F29" s="7">
         <v>44813</v>
       </c>
       <c r="G29" s="7">
-        <v>44831</v>
+        <v>44825</v>
       </c>
       <c r="H29">
-        <f>IF(G29&lt;F29,0,G29-F29)</f>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <f>I29*H29</f>
-        <v>180</v>
+        <f t="shared" si="10"/>
+        <v>120</v>
       </c>
       <c r="K29">
-        <f>J29+E29</f>
-        <v>9639.4500000000007</v>
+        <f t="shared" si="11"/>
+        <v>9579.4500000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -1740,15 +1740,15 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <f>C29-0.5</f>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="D30">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E30">
-        <f>C30*D30</f>
+        <f t="shared" si="8"/>
         <v>9409.4000000000015</v>
       </c>
       <c r="F30" s="7">
@@ -1758,18 +1758,18 @@
         <v>44832</v>
       </c>
       <c r="H30">
-        <f>IF(G30&lt;F30,0,G30-F30)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
-        <f>I30*H30</f>
+        <f t="shared" si="10"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f>J30+E30</f>
+        <f t="shared" si="11"/>
         <v>9599.4000000000015</v>
       </c>
     </row>
@@ -1781,15 +1781,15 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <f>C30-0.5</f>
+        <f t="shared" si="6"/>
         <v>93.5</v>
       </c>
       <c r="D31">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E31">
-        <f>C31*D31</f>
+        <f t="shared" si="8"/>
         <v>9359.35</v>
       </c>
       <c r="F31" s="7">
@@ -1799,18 +1799,18 @@
         <v>44833</v>
       </c>
       <c r="H31">
-        <f>IF(G31&lt;F31,0,G31-F31)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
-        <f>I31*H31</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f>J31+E31</f>
+        <f t="shared" si="11"/>
         <v>9559.35</v>
       </c>
     </row>
@@ -1822,15 +1822,15 @@
         <v>25</v>
       </c>
       <c r="C32">
-        <f>C31-0.5</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="D32">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E32">
-        <f>C32*D32</f>
+        <f t="shared" si="8"/>
         <v>9309.3000000000011</v>
       </c>
       <c r="F32" s="7">
@@ -1840,18 +1840,18 @@
         <v>44834</v>
       </c>
       <c r="H32">
-        <f>IF(G32&lt;F32,0,G32-F32)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
-        <f>I32*H32</f>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f>J32+E32</f>
+        <f t="shared" si="11"/>
         <v>9519.3000000000011</v>
       </c>
     </row>
@@ -1863,15 +1863,15 @@
         <v>26</v>
       </c>
       <c r="C33">
-        <f>C32-0.5</f>
+        <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
       <c r="D33">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E33">
-        <f>C33*D33</f>
+        <f t="shared" si="8"/>
         <v>9259.25</v>
       </c>
       <c r="F33" s="7">
@@ -1881,18 +1881,18 @@
         <v>44835</v>
       </c>
       <c r="H33">
-        <f>IF(G33&lt;F33,0,G33-F33)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <f>I33*H33</f>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f>J33+E33</f>
+        <f t="shared" si="11"/>
         <v>9479.25</v>
       </c>
     </row>
@@ -1904,37 +1904,37 @@
         <v>27</v>
       </c>
       <c r="C34">
-        <f>C33-0.5</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="D34">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="7"/>
         <v>100.10000000000001</v>
       </c>
       <c r="E34">
-        <f>C34*D34</f>
+        <f t="shared" si="8"/>
         <v>9209.2000000000007</v>
       </c>
       <c r="F34" s="7">
         <v>44813</v>
       </c>
       <c r="G34" s="7">
-        <v>44836</v>
+        <v>44846</v>
       </c>
       <c r="H34">
-        <f>IF(G34&lt;F34,0,G34-F34)</f>
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>33</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
-        <f>I34*H34</f>
-        <v>230</v>
+        <f t="shared" si="10"/>
+        <v>330</v>
       </c>
       <c r="K34">
-        <f>J34+E34</f>
-        <v>9439.2000000000007</v>
+        <f t="shared" si="11"/>
+        <v>9539.2000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <f>C34-0.5</f>
+        <f t="shared" si="6"/>
         <v>91.5</v>
       </c>
       <c r="D35">
@@ -1953,29 +1953,29 @@
         <v>50.050000000000004</v>
       </c>
       <c r="E35">
-        <f>C35*D35</f>
+        <f t="shared" si="8"/>
         <v>4579.5750000000007</v>
       </c>
       <c r="F35" s="7">
         <v>44813</v>
       </c>
       <c r="G35" s="7">
-        <v>44837</v>
+        <v>44847</v>
       </c>
       <c r="H35">
-        <f>IF(G35&lt;F35,0,G35-F35)</f>
-        <v>24</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
-        <f>I35*H35</f>
-        <v>240</v>
+        <f t="shared" si="10"/>
+        <v>340</v>
       </c>
       <c r="K35">
-        <f>J35+E35</f>
-        <v>4819.5750000000007</v>
+        <f t="shared" si="11"/>
+        <v>4919.5750000000007</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>29</v>
       </c>
       <c r="C36">
-        <f>C35-0.5</f>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="D36">
@@ -1994,7 +1994,7 @@
         <v>50.050000000000004</v>
       </c>
       <c r="E36">
-        <f>C36*D36</f>
+        <f t="shared" si="8"/>
         <v>4554.55</v>
       </c>
       <c r="F36" s="7">
@@ -2004,18 +2004,18 @@
         <v>44838</v>
       </c>
       <c r="H36">
-        <f>IF(G36&lt;F36,0,G36-F36)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <f>I36*H36</f>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f>J36+E36</f>
+        <f t="shared" si="11"/>
         <v>4804.55</v>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
         <v>30</v>
       </c>
       <c r="C37">
-        <f>C36-0.5</f>
+        <f t="shared" si="6"/>
         <v>90.5</v>
       </c>
       <c r="D37">
@@ -2035,7 +2035,7 @@
         <v>50.050000000000004</v>
       </c>
       <c r="E37">
-        <f>C37*D37</f>
+        <f t="shared" si="8"/>
         <v>4529.5250000000005</v>
       </c>
       <c r="F37" s="7">
@@ -2045,18 +2045,18 @@
         <v>44839</v>
       </c>
       <c r="H37">
-        <f>IF(G37&lt;F37,0,G37-F37)</f>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <f>I37*H37</f>
+        <f t="shared" si="10"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f>J37+E37</f>
+        <f t="shared" si="11"/>
         <v>4789.5250000000005</v>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>31</v>
       </c>
       <c r="C38">
-        <f>C37-0.5</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="D38">
@@ -2076,7 +2076,7 @@
         <v>50.050000000000004</v>
       </c>
       <c r="E38">
-        <f>C38*D38</f>
+        <f t="shared" si="8"/>
         <v>4504.5</v>
       </c>
       <c r="F38" s="7">
@@ -2086,18 +2086,18 @@
         <v>44840</v>
       </c>
       <c r="H38">
-        <f>IF(G38&lt;F38,0,G38-F38)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38">
-        <f>I38*H38</f>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f>J38+E38</f>
+        <f t="shared" si="11"/>
         <v>4774.5</v>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="C40" s="8">
         <f>SUM(K3:K38)</f>
-        <v>304950.06000000006</v>
+        <v>305190.06000000006</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C43">
         <f>MAX(J3:J38)</f>
-        <v>270</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
